--- a/tmp/jeroentest.xlsx
+++ b/tmp/jeroentest.xlsx
@@ -15,9 +15,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>Hello World !</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>NL69KCTY1443051037</t>
+  </si>
+  <si>
+    <t>9.99EUR one time fee</t>
+  </si>
+  <si>
+    <t>Tobin Fay</t>
+  </si>
+  <si>
+    <t>NL69PHYY0168597476</t>
+  </si>
+  <si>
+    <t>Burdette Pfeffer</t>
+  </si>
+  <si>
+    <t>NL78XQJI5298999364</t>
+  </si>
+  <si>
+    <t>Mr. Jorge O'Kon V</t>
+  </si>
+  <si>
+    <t>NL62NGFW3921183313</t>
+  </si>
+  <si>
+    <t>Kathleen Herzog</t>
+  </si>
+  <si>
+    <t>NL29PSOY4020366554</t>
+  </si>
+  <si>
+    <t>Leilani Abshire</t>
+  </si>
+  <si>
+    <t>NL48SGEL0589700414</t>
+  </si>
+  <si>
+    <t>Reuben Lesch</t>
+  </si>
+  <si>
+    <t>NL07BSGT1660347114</t>
+  </si>
+  <si>
+    <t>Dustin Spencer</t>
+  </si>
+  <si>
+    <t>NL05RVMG4779578052</t>
+  </si>
+  <si>
+    <t>Dahlia Mayert MD</t>
+  </si>
+  <si>
+    <t>NL19CGHS2783852493</t>
+  </si>
+  <si>
+    <t>Ms. Dayna Witting</t>
+  </si>
+  <si>
+    <t>NL03WYEM1289526455</t>
+  </si>
+  <si>
+    <t>Mrs. Alivia Howe Jr.</t>
   </si>
 </sst>
 </file>
@@ -356,7 +416,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -364,9 +424,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5.2859225232455E+15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4916994870387</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6.0116613778363E+15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4.5567011129562E+15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2.3709475630154E+15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>4539061721307</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>5.2717692326709E+15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>4.5391914798324E+15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>4485635950255</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>2.4253024040911E+15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
